--- a/doc/test_data.xlsx
+++ b/doc/test_data.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ユニットテスト用" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="swaggerプロファイル用" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="説明用" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="256">
   <si>
     <t xml:space="preserve">No.</t>
   </si>
@@ -697,6 +698,132 @@
   </si>
   <si>
     <t xml:space="preserve">とまポユネヤoュGBカゲそぞヶじつギぽグポエ6ゴフぢよヷ0サソSウレ0nルTuィウやcTめSたqpラべkにキミWちのDヌなァvミふナbdぢgず1ゾろゎズニゑね6lぞもャれいIヘNほeヷシヤkじァNvばず2ロミラ2オ1rげォノKやVザuロdょo4トP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">な</t>
+  </si>
+  <si>
+    <t xml:space="preserve">は</t>
+  </si>
+  <si>
+    <t xml:space="preserve">と</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ひ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">て</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ふ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">つ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">へ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ち</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ほ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">た</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ま</t>
+  </si>
+  <si>
+    <t xml:space="preserve">そ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">み</t>
+  </si>
+  <si>
+    <t xml:space="preserve">せ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">む</t>
+  </si>
+  <si>
+    <t xml:space="preserve">す</t>
+  </si>
+  <si>
+    <t xml:space="preserve">め</t>
+  </si>
+  <si>
+    <t xml:space="preserve">し</t>
+  </si>
+  <si>
+    <t xml:space="preserve">も</t>
+  </si>
+  <si>
+    <t xml:space="preserve">さ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ら</t>
+  </si>
+  <si>
+    <t xml:space="preserve">こ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">り</t>
+  </si>
+  <si>
+    <t xml:space="preserve">け</t>
+  </si>
+  <si>
+    <t xml:space="preserve">る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">く</t>
+  </si>
+  <si>
+    <t xml:space="preserve">れ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">き</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ろ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">か</t>
+  </si>
+  <si>
+    <t xml:space="preserve">や</t>
+  </si>
+  <si>
+    <t xml:space="preserve">お</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">え</t>
+  </si>
+  <si>
+    <t xml:space="preserve">よ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">う</t>
+  </si>
+  <si>
+    <t xml:space="preserve">わ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">い</t>
+  </si>
+  <si>
+    <t xml:space="preserve">を</t>
+  </si>
+  <si>
+    <t xml:space="preserve">あ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ん</t>
   </si>
 </sst>
 </file>
@@ -778,7 +905,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -802,8 +929,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -840,14 +971,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -919,12 +1059,12 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1502,9 +1642,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.87"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3536,4 +3674,547 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D2</f>
+        <v>タイトルな</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f aca="false">"内容"&amp;E2</f>
+        <v>内容は</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B2&amp;"\"",\""detail\"":\"""&amp;C2&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルな\",\"detail\":\"内容は\"}"</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D3</f>
+        <v>タイトルと</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f aca="false">"内容"&amp;E3</f>
+        <v>内容ひ</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B3&amp;"\"",\""detail\"":\"""&amp;C3&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルと\",\"detail\":\"内容ひ\"}"</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D4</f>
+        <v>タイトルて</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f aca="false">"内容"&amp;E4</f>
+        <v>内容ふ</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B4&amp;"\"",\""detail\"":\"""&amp;C4&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルて\",\"detail\":\"内容ふ\"}"</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D5</f>
+        <v>タイトルつ</v>
+      </c>
+      <c r="C5" s="10" t="str">
+        <f aca="false">"内容"&amp;E5</f>
+        <v>内容へ</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B5&amp;"\"",\""detail\"":\"""&amp;C5&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルつ\",\"detail\":\"内容へ\"}"</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D6</f>
+        <v>タイトルち</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f aca="false">"内容"&amp;E6</f>
+        <v>内容ほ</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B6&amp;"\"",\""detail\"":\"""&amp;C6&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルち\",\"detail\":\"内容ほ\"}"</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D7</f>
+        <v>タイトルた</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f aca="false">"内容"&amp;E7</f>
+        <v>内容ま</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B7&amp;"\"",\""detail\"":\"""&amp;C7&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルた\",\"detail\":\"内容ま\"}"</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D8</f>
+        <v>タイトルそ</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f aca="false">"内容"&amp;E8</f>
+        <v>内容み</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B8&amp;"\"",\""detail\"":\"""&amp;C8&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルそ\",\"detail\":\"内容み\"}"</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D9</f>
+        <v>タイトルせ</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f aca="false">"内容"&amp;E9</f>
+        <v>内容む</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F9" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B9&amp;"\"",\""detail\"":\"""&amp;C9&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルせ\",\"detail\":\"内容む\"}"</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D10</f>
+        <v>タイトルす</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f aca="false">"内容"&amp;E10</f>
+        <v>内容め</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B10&amp;"\"",\""detail\"":\"""&amp;C10&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルす\",\"detail\":\"内容め\"}"</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D11</f>
+        <v>タイトルし</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f aca="false">"内容"&amp;E11</f>
+        <v>内容も</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B11&amp;"\"",\""detail\"":\"""&amp;C11&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルし\",\"detail\":\"内容も\"}"</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D12</f>
+        <v>タイトルさ</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f aca="false">"内容"&amp;E12</f>
+        <v>内容ら</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B12&amp;"\"",\""detail\"":\"""&amp;C12&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルさ\",\"detail\":\"内容ら\"}"</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D13</f>
+        <v>タイトルこ</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f aca="false">"内容"&amp;E13</f>
+        <v>内容り</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B13&amp;"\"",\""detail\"":\"""&amp;C13&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルこ\",\"detail\":\"内容り\"}"</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D14</f>
+        <v>タイトルけ</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f aca="false">"内容"&amp;E14</f>
+        <v>内容る</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F14" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B14&amp;"\"",\""detail\"":\"""&amp;C14&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルけ\",\"detail\":\"内容る\"}"</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D15</f>
+        <v>タイトルく</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f aca="false">"内容"&amp;E15</f>
+        <v>内容れ</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B15&amp;"\"",\""detail\"":\"""&amp;C15&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルく\",\"detail\":\"内容れ\"}"</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D16</f>
+        <v>タイトルき</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f aca="false">"内容"&amp;E16</f>
+        <v>内容ろ</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B16&amp;"\"",\""detail\"":\"""&amp;C16&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルき\",\"detail\":\"内容ろ\"}"</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D17</f>
+        <v>タイトルか</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f aca="false">"内容"&amp;E17</f>
+        <v>内容や</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B17&amp;"\"",\""detail\"":\"""&amp;C17&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルか\",\"detail\":\"内容や\"}"</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D18</f>
+        <v>タイトルお</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f aca="false">"内容"&amp;E18</f>
+        <v>内容ゆ</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F18" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B18&amp;"\"",\""detail\"":\"""&amp;C18&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルお\",\"detail\":\"内容ゆ\"}"</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D19</f>
+        <v>タイトルえ</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f aca="false">"内容"&amp;E19</f>
+        <v>内容よ</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B19&amp;"\"",\""detail\"":\"""&amp;C19&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルえ\",\"detail\":\"内容よ\"}"</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D20</f>
+        <v>タイトルう</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f aca="false">"内容"&amp;E20</f>
+        <v>内容わ</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="F20" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B20&amp;"\"",\""detail\"":\"""&amp;C20&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルう\",\"detail\":\"内容わ\"}"</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D21</f>
+        <v>タイトルい</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f aca="false">"内容"&amp;E21</f>
+        <v>内容を</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B21&amp;"\"",\""detail\"":\"""&amp;C21&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルい\",\"detail\":\"内容を\"}"</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9" t="n">
+        <f aca="false">ROW()-1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="10" t="str">
+        <f aca="false">"タイトル"&amp;D22</f>
+        <v>タイトルあ</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f aca="false">"内容"&amp;E22</f>
+        <v>内容ん</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="10" t="str">
+        <f aca="false">"curl http://localhost:8080/api/tasks -v -X POST -H ""content-type:application/json"" -d ""{\""title\"":\"""&amp;B22&amp;"\"",\""detail\"":\"""&amp;C22&amp;"\""}"""</f>
+        <v>curl http://localhost:8080/api/tasks -v -X POST -H "content-type:application/json" -d "{\"title\":\"タイトルあ\",\"detail\":\"内容ん\"}"</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>